--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1009760.27089486</v>
+        <v>-1012441.133958269</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>264.6530118728071</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>333.8088479285403</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>46.63319374014326</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>49.70349868947012</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>17.56160908304591</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>227.0141108309996</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>71.72364438435852</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>109.2167875722781</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>74.93965791539722</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,16 +1111,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>71.61641868233286</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>314.3052451623607</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>42.48708548245827</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>44.70256031889743</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238269</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>262.691911950018</v>
       </c>
       <c r="X13" t="n">
-        <v>45.17596778975057</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>141.693051905693</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>67.96934215963635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>220.6346102953139</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>123.7971820797027</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>56.49518623012946</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>221.7042229025862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2855,10 +2855,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265259</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2295.013053781158</v>
+        <v>1918.618935688523</v>
       </c>
       <c r="C2" t="n">
-        <v>1926.050536840746</v>
+        <v>1918.618935688523</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>1560.353237081773</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1174.564984483529</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4361,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>1918.618935688523</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1341.093507505116</v>
+        <v>567.3951106379441</v>
       </c>
       <c r="C4" t="n">
-        <v>1172.157324577209</v>
+        <v>398.4589277100372</v>
       </c>
       <c r="D4" t="n">
-        <v>1125.053088476054</v>
+        <v>248.3422882977015</v>
       </c>
       <c r="E4" t="n">
-        <v>977.1399948936613</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270334</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>2040.148693270334</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V4" t="n">
-        <v>2040.148693270334</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W4" t="n">
-        <v>1750.731523233373</v>
+        <v>766.7825745419675</v>
       </c>
       <c r="X4" t="n">
-        <v>1522.741972335356</v>
+        <v>749.0435754681838</v>
       </c>
       <c r="Y4" t="n">
-        <v>1522.741972335356</v>
+        <v>749.0435754681838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1793.919728214993</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1424.957211274581</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1066.691512667831</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>1066.691512667831</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,10 +4565,10 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087292</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190805</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="X5" t="n">
-        <v>2184.059060190805</v>
+        <v>1726.546868009079</v>
       </c>
       <c r="Y5" t="n">
-        <v>1793.919728214993</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>1092.885047004312</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604.3445683049837</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="C7" t="n">
-        <v>435.4083853770768</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1560.74949591753</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1364.120748077391</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1141.142267272127</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485138</v>
+        <v>852.0239297759645</v>
       </c>
       <c r="V7" t="n">
-        <v>825.1371474485138</v>
+        <v>597.3394415700776</v>
       </c>
       <c r="W7" t="n">
-        <v>825.1371474485138</v>
+        <v>597.3394415700776</v>
       </c>
       <c r="X7" t="n">
-        <v>825.1371474485138</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="Y7" t="n">
-        <v>604.3445683049837</v>
+        <v>369.3498906720603</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>862.4791652013137</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C8" t="n">
-        <v>493.5166482609019</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>135.2509496541514</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>135.2509496541514</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796629</v>
+        <v>1991.278222045789</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.544763526515</v>
+        <v>1638.509566775675</v>
       </c>
       <c r="X8" t="n">
-        <v>1249.079005265435</v>
+        <v>1638.509566775675</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.079005265435</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.6534264926422</v>
+        <v>263.0992174579891</v>
       </c>
       <c r="C10" t="n">
-        <v>620.7172435647353</v>
+        <v>94.16303453008217</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>94.16303453008217</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1488.70861225786</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1488.70861225786</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>1488.70861225786</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W10" t="n">
-        <v>1199.291442220899</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X10" t="n">
-        <v>971.3018913228819</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y10" t="n">
-        <v>971.3018913228819</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1168.356000042741</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>940.366449144724</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>719.5738700011939</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.3164745246301</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C16" t="n">
-        <v>701.3802915967232</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D16" t="n">
-        <v>701.3802915967232</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>553.4671980143301</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D22" t="n">
-        <v>527.7722521572603</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2322.851535155764</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2103.250070178706</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1814.174843522904</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150025</v>
@@ -7318,19 +7318,19 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7354,22 +7354,22 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345481</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311324</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,25 +7831,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54.95314511566528</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.9556134883072218</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>240.4465442417436</v>
+        <v>129.7511347056858</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>84.94186588374703</v>
       </c>
       <c r="L9" t="n">
-        <v>138.9393975111055</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.0808297906735</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>73.06719781317111</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>211.8399498933256</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.1480463059912</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>23.83108638657302</v>
       </c>
       <c r="X13" t="n">
-        <v>180.5336875992866</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>38.13892827624431</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>77.45170586329489</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>22.63678056686646</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>124.5310997715151</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4.005432486450957</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26314,34 +26314,34 @@
         <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="H2" t="n">
         <v>201786.6499225016</v>
-      </c>
-      <c r="H2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
-      <c r="K2" t="n">
-        <v>201786.6499225016</v>
-      </c>
       <c r="L2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660712</v>
@@ -26350,7 +26350,7 @@
         <v>205260.442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50904.45160960677</v>
+        <v>50904.4516096068</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719688</v>
+        <v>7507.368461719687</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481318</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="O4" t="n">
         <v>15498.22772481314</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481315</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1089341.866731049</v>
+        <v>-1089701.949746767</v>
       </c>
       <c r="C6" t="n">
-        <v>-20791.19352051822</v>
+        <v>-20791.19352051819</v>
       </c>
       <c r="D6" t="n">
-        <v>-20791.19352051822</v>
+        <v>-20791.19352051817</v>
       </c>
       <c r="E6" t="n">
-        <v>-414328.6899876712</v>
+        <v>-414363.4279131068</v>
       </c>
       <c r="F6" t="n">
-        <v>93156.75163687473</v>
+        <v>93122.01371143907</v>
       </c>
       <c r="G6" t="n">
-        <v>93156.75163687476</v>
+        <v>93122.01371143907</v>
       </c>
       <c r="H6" t="n">
-        <v>93156.75163687491</v>
+        <v>93122.0137114391</v>
       </c>
       <c r="I6" t="n">
-        <v>93156.75163687482</v>
+        <v>93122.0137114391</v>
       </c>
       <c r="J6" t="n">
-        <v>-74448.42617310779</v>
+        <v>-74483.16409854345</v>
       </c>
       <c r="K6" t="n">
-        <v>93156.75163687476</v>
+        <v>93122.01371143904</v>
       </c>
       <c r="L6" t="n">
-        <v>67170.38089371091</v>
+        <v>67170.38089371083</v>
       </c>
       <c r="M6" t="n">
-        <v>-46009.19484158403</v>
+        <v>-46009.19484158397</v>
       </c>
       <c r="N6" t="n">
-        <v>86598.09888734244</v>
+        <v>86598.09888734246</v>
       </c>
       <c r="O6" t="n">
-        <v>86598.09888734232</v>
+        <v>86598.09888734241</v>
       </c>
       <c r="P6" t="n">
-        <v>86598.09888734241</v>
+        <v>86598.09888734238</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>137.4010188240875</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.9822792780691</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>96.73046395709906</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>179.8619349107118</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>314.5142942716951</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>39.39868544593423</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>26.61791450417641</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>335.2596270593785</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>13.44701330777417</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>103.9468771641109</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>176.0461356783145</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29575,10 +29575,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>531.8166820790245</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,22 +32792,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,28 +33023,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O27" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>150.2061940096332</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>352.6335057535154</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>392.1527130811811</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>538.1269048795938</v>
+        <v>427.431495343536</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>271.5293621272318</v>
       </c>
       <c r="L9" t="n">
-        <v>436.6197581489557</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O27" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
